--- a/dataExp/시험결과집계_원성현.xlsx
+++ b/dataExp/시험결과집계_원성현.xlsx
@@ -637,7 +637,7 @@
     <x:t>불합격</x:t>
   </x:si>
   <x:si>
-    <x:t>40</x:t>
+    <x:t>40%</x:t>
   </x:si>
   <x:si>
     <x:t>김성준</x:t>
@@ -652,7 +652,7 @@
     <x:t>영어</x:t>
   </x:si>
   <x:si>
-    <x:t>60</x:t>
+    <x:t>60%</x:t>
   </x:si>
   <x:si>
     <x:t>고민규</x:t>
